--- a/streamlit/growth_rate.xlsx
+++ b/streamlit/growth_rate.xlsx
@@ -1,40 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>HCPI</t>
+  </si>
+  <si>
+    <t>RY</t>
+  </si>
+  <si>
+    <t>ARY</t>
+  </si>
+  <si>
+    <t>ICRY</t>
+  </si>
+  <si>
+    <t>TTRY</t>
+  </si>
+  <si>
+    <t>RRY</t>
+  </si>
+  <si>
+    <t>ERY</t>
+  </si>
+  <si>
+    <t>HRY</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>CGRY</t>
+  </si>
+  <si>
+    <t>NORY</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +93,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,3402 +412,3284 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>HCPI</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RY</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ARY</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ICRY</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TTRY</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>RRY</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ERY</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>HRY</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CGRY</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>NORY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
         <v>36616</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
         <v>36707</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
         <v>36799</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
         <v>36891</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
         <v>36981</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>18.19928955009014</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.529590397843917</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>3.606423437881572</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>79.44428519582894</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>5.467912768853283</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>5.182187188844092</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>3.062829826577281</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>2.20016375324674</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>60.14882161628655</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>4.283460515370354</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>7.648904569289749</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
         <v>37072</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>16.05786145827806</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.604553138268156</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.710677194509413</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>77.90700580880755</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>4.540497458802597</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4.717552882529467</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>4.331421153800374</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>0.9333395564192076</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>39.7064270088858</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>4.798000897428679</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>7.426457961271534</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
         <v>37164</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>19.11607829525833</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.806115970781625</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>4.335498708551222</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>80.12851911788711</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>4.389719386098985</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>5.094910039521371</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>1.09161988834492</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>1.541868091101303</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>37.90010763943875</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>4.778326167791098</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>7.379700009589202</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
         <v>37256</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>16.49485041466206</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.70587339781976</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>3.414274399594929</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>77.83031805659621</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>4.218774709830952</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>5.004267615622231</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>-0.7383774847188077</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>1.816011554281053</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>27.0046503674448</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>7.344582914019054</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>6.855426358518958</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
         <v>37346</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>17.38247159445444</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>14.75013314739907</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>65.45653836087382</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>16.57432027838842</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>18.21925689296616</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>4.220641004191553</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>9.238649780729228</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>3.015398139491079</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>11.71990087520675</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>-7.172226644279697</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>24.10711241290769</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
         <v>37437</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>12.22325863335007</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>14.49333520528191</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>57.9460127571528</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>14.25268070344198</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>19.78910684444655</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>2.062013139295554</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>12.63841187869404</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>0.7629197916545085</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>18.91236842930261</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>-5.01385421799904</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>22.78654669915567</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
         <v>37529</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>9.974697442958579</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>14.57431373575307</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>53.66983924746784</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>17.98489606533136</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>18.98215963260046</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>2.682505642334326</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12">
         <v>6.141292450582683</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I12">
         <v>-0.345800357638</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>20.9241662948874</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>-8.019839254490838</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>24.89819714125912</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
         <v>37621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12.16853565002454</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>14.60647617557989</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>49.5417436649417</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>15.9441618251802</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>19.38406613404991</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3.158327666036345</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13">
         <v>5.016900594106828</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I13">
         <v>-0.3085872778764524</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>21.55422932818318</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>-2.134312970016633</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>22.12251510470647</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
         <v>37711</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.862011050485129</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>9.243521511565609</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>5.036930088992691</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>13.23688813708518</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>2.704313695357037</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>1.353748871636697</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14">
         <v>5.749690016853872</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I14">
         <v>-0.8459262409516524</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>34.81798481113685</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>26.20351282021188</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>3.646408020342277</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
         <v>37802</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>13.98763794025931</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>9.626878378290806</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>7.069395138653735</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>16.10150347389828</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.4101865105622877</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>4.233711756581453</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>1.699944917584622</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I15">
         <v>1.802233888882623</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>41.42730069320371</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>22.39036085592081</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>5.071963956691751</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
         <v>37894</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>18.37261610492925</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>9.604867725517297</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>5.663694827982664</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>11.48213886469041</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>1.32262562073904</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>3.49651204624602</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16">
         <v>9.277971968194246</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I16">
         <v>3.688315240289771</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>23.3988371011657</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>28.11526184892827</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>4.151063763146825</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:12">
+      <c r="A17" s="2">
         <v>37986</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>23.81135742207281</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>9.516910042796487</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>9.757379181063111</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>13.67593133941741</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.7643162404882563</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>2.777508266550691</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>10.06596037647491</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>3.752438000319481</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>24.11369395853371</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>18.44560258094186</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>5.815310450302595</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:12">
+      <c r="A18" s="2">
         <v>38077</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>22.46099406473869</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>10.66533523073462</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>6.218808892212996</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>34.30482557915325</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>47.801350381723</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>10.97326169458865</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18">
         <v>9.253847915981533</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I18">
         <v>10.73210456306059</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>9.761340840228087</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>4.048044390025381</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>13.64727099559485</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:12">
+      <c r="A19" s="2">
         <v>38168</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>14.09829831733055</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>10.49439676198793</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>5.977759141110853</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>35.02587871526317</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>50.04642464741059</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>10.93997323838415</v>
       </c>
-      <c r="H19" t="n">
+      <c r="H19">
         <v>8.524383255238144</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I19">
         <v>11.8064235492537</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>-0.51942845249729</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>4.071460401732303</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>13.20585875512019</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:12">
+      <c r="A20" s="2">
         <v>38260</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>9.125374713454413</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>10.24870071305503</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>6.739011286543733</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>34.11422026721886</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>50.03407369998858</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>10.61831463953175</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H20">
         <v>11.08250573333211</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I20">
         <v>10.59668999005235</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>8.8723635755149</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>3.153085667421728</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>12.97903681106508</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:12">
+      <c r="A21" s="2">
         <v>38352</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>10.00848176420693</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>10.39065612527576</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>6.020073878696108</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>35.66432114536068</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>50.49657945468223</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>10.8871617753045</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H21">
         <v>13.39169956442362</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I21">
         <v>10.22665933291166</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>14.02363470230609</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>1.793334082789535</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>13.23329601895207</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:12">
+      <c r="A22" s="2">
         <v>38442</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>16.2676541508784</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>6.792505282514133</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>7.202800884035026</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>22.21118511366641</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>7.796894946147082</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>10.96711323965417</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H22">
         <v>12.16432162110051</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I22">
         <v>10.11636327911853</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>21.92660983423248</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>-0.225115722242951</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>9.705908145114456</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:12">
+      <c r="A23" s="2">
         <v>38533</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>18.57190468255291</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>6.957716803293226</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>7.160438058341202</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>21.55856385963447</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>6.183980574256352</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>11.00040983944042</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H23">
         <v>12.9182527319221</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I23">
         <v>9.058283644640449</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>27.35156577880496</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>-0.2475650070832467</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>9.556130749035765</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:12">
+      <c r="A24" s="2">
         <v>38625</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>24.31930193100105</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>7.196078691020583</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>7.167777675417772</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>22.38487363837357</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>6.192721740371426</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>11.32317950391551</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H24">
         <v>10.31785477912413</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I24">
         <v>10.25118974016364</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>28.56763200504668</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>0.6405336415486599</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>9.343276349265212</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:12">
+      <c r="A25" s="2">
         <v>38717</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>11.56515034695451</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>7.05823130363157</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>6.811098238211745</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>20.98650376119081</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>5.866370503091019</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>11.05327523839386</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25">
         <v>8.071259034517023</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I25">
         <v>10.62130274582843</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>24.35329266452764</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>1.984886160604866</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>8.879726183846078</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
         <v>38807</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>12.03614547070588</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>7.545235849307586</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>9.711831820376565</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>25.08200177774652</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>4.315481508457375</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>12.0338632258577</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H26">
         <v>7.578106565334323</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I26">
         <v>7.965684473539082</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>28.79998909062011</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>-4.581032158013874</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>11.56624050984155</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
         <v>38898</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>8.488510997118954</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>6.794831466575844</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6.681947419949807</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>25.12266386302481</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>7.214212987118825</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>12.29892691561493</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27">
         <v>6.763575282277016</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I27">
         <v>11.36260989973977</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>45.35079471973495</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>-0.8874762400932922</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>9.781353460839302</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
         <v>38990</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>6.252030935205051</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>6.115894456747043</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>8.382379661412575</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>24.83849917910086</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>7.575923445586501</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>11.32172592240322</v>
       </c>
-      <c r="H28" t="n">
+      <c r="H28">
         <v>11.15660019892511</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I28">
         <v>11.45282041712359</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>55.81258895002621</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>-6.963385194279351</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>10.4931275672823</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
         <v>39082</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>8.548721492743617</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>6.55113410440947</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>5.431317732034731</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>26.18650941542657</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>8.464721364447136</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>11.21630957087004</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H29">
         <v>15.48876357589798</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I29">
         <v>10.56624785689197</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>43.09491897148902</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>-5.409075491049649</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>10.02187523242603</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
         <v>39172</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>5.249239719687941</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>6.329101992687651</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>5.142046113973937</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>25.60046144949911</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>8.511953029484317</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>11.38214383485351</v>
       </c>
-      <c r="H30" t="n">
+      <c r="H30">
         <v>12.42892063597572</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I30">
         <v>14.8216924264767</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>45.06648093524468</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>-2.324809869346079</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>9.492871578703191</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
         <v>39263</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>6.431763715266536</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>7.332326125841424</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>8.093806499176601</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>27.55222192895161</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>7.493185929775716</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>10.75544566499486</v>
       </c>
-      <c r="H31" t="n">
+      <c r="H31">
         <v>11.86275310791008</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I31">
         <v>11.13191358792307</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>30.78937103060193</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>-9.459765000116811</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>11.84971858341987</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    <row r="32" spans="1:12">
+      <c r="A32" s="2">
         <v>39355</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>4.116459722307167</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>7.985317709609709</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>6.279989579705211</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>25.55343720915488</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>6.745343836966894</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>11.73272631286779</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H32">
         <v>10.70659661902821</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I32">
         <v>7.376310469940993</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>31.29027126540701</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>0.07424838480894513</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>10.08981356968516</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:12">
+      <c r="A33" s="2">
         <v>39447</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>6.563952377920668</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>7.520346621669232</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>8.916857952433809</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>27.19562764759495</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>5.972699946413155</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>12.76078474194084</v>
       </c>
-      <c r="H33" t="n">
+      <c r="H33">
         <v>9.038688209693531</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I33">
         <v>8.01941945131763</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>45.87653973513405</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>-6.944261019501455</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>11.27539521469356</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:12">
+      <c r="A34" s="2">
         <v>39538</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>7.776381909547755</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>7.688190992272552</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>8.221574299157181</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>27.88236938312423</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>6.268651796808779</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>11.45148346102628</v>
       </c>
-      <c r="H34" t="n">
+      <c r="H34">
         <v>10.09602354618771</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I34">
         <v>6.515691744779013</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>69.34925119790822</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>-7.307353025861217</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>11.69346730806287</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:12">
+      <c r="A35" s="2">
         <v>39629</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>12.04965920155795</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>7.175247217215075</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>5.66080324583831</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>27.18378479670718</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>6.789955646477097</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>13.07585337490787</v>
       </c>
-      <c r="H35" t="n">
+      <c r="H35">
         <v>9.274798948268794</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I35">
         <v>9.870365108074264</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>58.94828783178481</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>-3.403629647378557</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>10.00168644848773</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:12">
+      <c r="A36" s="2">
         <v>39721</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>13.02432146633765</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.703869033748219</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>7.394357405018622</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>28.11775870125833</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>7.288534856869454</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>12.0161864078756</v>
       </c>
-      <c r="H36" t="n">
+      <c r="H36">
         <v>11.80034388894025</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I36">
         <v>13.01009095186843</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>58.14688913772709</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>-9.36978982256039</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>10.69382480219941</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:12">
+      <c r="A37" s="2">
         <v>39813</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>15.05556219381051</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>7.280652878339501</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>4.255040344281324</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>27.55485291128118</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>7.829758026668747</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>10.79429390472395</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>11.37536903416933</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>12.2576306074298</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>58.53444665899885</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>-3.917371631521604</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>9.760031257218808</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:12">
+      <c r="A38" s="2">
         <v>39903</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>14.36647627928661</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>8.209257283581014</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>5.760075067511607</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>30.78945065492241</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>10.52515886963177</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>11.24471944693457</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>13.9040410818581</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>9.869496300594403</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>12.05823668551129</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>-2.798868242583225</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>11.06029699457336</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:12">
+      <c r="A39" s="2">
         <v>39994</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>11.19378666087333</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>8.209143244331422</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>5.632738789921528</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>27.4373555790004</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>6.114764396869305</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>10.36707325863647</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>17.64032059197498</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>6.880642266567581</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>12.39701944835914</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>0.6392178993772374</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>10.04126410778398</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="40" spans="1:12">
+      <c r="A40" s="2">
         <v>40086</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>10.39035292894644</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>8.755118954762926</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>6.373298946294335</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>31.15076253623806</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>6.3905525166691</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>11.40109905821923</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>8.377711098671675</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>11.12528967210785</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>7.459413612594945</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>-0.37944550926561</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>10.1959251046231</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="41" spans="1:12">
+      <c r="A41" s="2">
         <v>40178</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>13.92956036819295</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>8.218465016226133</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>5.639145312205922</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>25.62142068915225</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>5.6522645401349</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>10.79318277709572</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>3.818702267696875</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>12.31391570883273</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>17.21457498844955</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>5.058262573229229</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>8.928019514302141</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:12">
+      <c r="A42" s="2">
         <v>40268</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>14.81175140864985</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>8.883023258838545</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>6.640727842699913</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>31.96049082594942</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>3.369084706549905</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>12.8652889953128</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>19.64146442974158</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>15.23378063776416</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>22.35480658961605</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>-6.899814696085155</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>11.87880933438548</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:12">
+      <c r="A43" s="2">
         <v>40359</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>14.09892443706346</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>8.765977804963871</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>5.790067269611826</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>22.3474610328599</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>10.21789076315354</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>8.451809969617706</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>30.9200801393933</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>7.248962208774514</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>19.33149877141198</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>1.894731954593353</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>10.11926902903767</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:12">
+      <c r="A44" s="2">
         <v>40451</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>13.64995008946227</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>10.17079785831646</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>7.680720743418426</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>38.25569947263188</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>5.494333662787891</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>11.12682752255993</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>6.471541696435867</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>8.415919877605393</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>16.50259078775821</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>1.611691814974054</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>11.56626039648992</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:12">
+      <c r="A45" s="2">
         <v>40543</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>11.81532330841334</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>10.1804141642331</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>3.300473827420839</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>26.68313781563683</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>7.834600251661884</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>10.77854392960674</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>-9.892871437677655</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>9.01709394534358</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>6.816272072254923</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>25.97234396315143</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>8.149205277745381</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:12">
+      <c r="A46" s="2">
         <v>40633</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>12.77912837173778</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>6.891880965737382</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>2.277829434074999</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-1.975922066640351</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>5.876370470801888</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>1.585788078957525</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>15.33957772218856</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>14.59012939383914</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>7.112445432842891</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>24.20708274682973</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>3.740371605900301</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    <row r="47" spans="1:12">
+      <c r="A47" s="2">
         <v>40724</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>10.23018264507374</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>6.364369664456253</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>2.850765632923349</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>6.235367059105874</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>3.325464774155182</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>1.263448254043327</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>6.62127088177472</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>21.98091373904173</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>12.86558791123045</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>10.56901439428566</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>5.602626350978158</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:12">
+      <c r="A48" s="2">
         <v>40816</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>10.33903184842088</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>3.601545250120967</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>3.26351836463351</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-4.879069358834752</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>8.388371976556517</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-1.851419470391945</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>32.67621574929396</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>9.098818969780584</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>13.25114448314502</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>-3.337777008289493</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>4.790275717219975</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:12">
+      <c r="A49" s="2">
         <v>40908</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>10.28302595808747</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>4.686718460392878</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>3.042031492535516</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>8.839487185078921</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>6.225516128155166</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>0.9282290079479107</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>72.68019188542677</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>6.487766419142045</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>12.99923347297693</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>-17.28396516260572</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>8.919594954174523</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:12">
+      <c r="A50" s="2">
         <v>40999</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>12.11089860124554</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>3.455498845547098</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>5.725211253437902</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>4.466696843491876</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-2.827053470281011</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>4.077735908758994</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>2.29601841911864</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>4.504188347577958</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>11.47367692903253</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>-8.284283233712635</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>6.01378807255441</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:12">
+      <c r="A51" s="2">
         <v>41090</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>12.89198092190881</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>4.109076620022456</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>6.930074341746955</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>5.755006376616101</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-2.810522437733376</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>4.520569777382399</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>1.865194117844341</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>2.313751827767267</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>9.762788481159394</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>-10.18218149499141</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>6.819945591970768</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:12">
+      <c r="A52" s="2">
         <v>41182</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>11.25299073192083</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.572447265840519</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>4.294720212740639</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>1.797985918572212</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-3.902237311367717</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>6.406777887429056</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>1.802548930263121</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>4.131402831833894</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>11.85971984413038</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>9.83172972471208</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>4.899410832034881</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:12">
+      <c r="A53" s="2">
         <v>41274</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>11.98108447737703</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>3.635804777303777</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>9.924705232792068</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.5188529661140158</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-3.939264141677842</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>7.068019930757598</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>1.041636255701297</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>6.561305699155985</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>16.78591525524528</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>-10.19482826558205</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>5.65937264718067</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:12">
+      <c r="A54" s="2">
         <v>41364</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>8.593279888367862</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>4.454849954365964</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>2.460818857239302</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>6.12789040039394</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>4.440039314851582</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>8.624958035926349</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>18.19819483482658</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>4.027595479890909</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>19.81487736855206</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>-11.39545895694823</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>7.443043675748069</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:12">
+      <c r="A55" s="2">
         <v>41455</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>8.353156270755488</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.401893487924352</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>2.565799705841259</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>9.231951180809327</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>3.586620574167374</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>15.86054319476323</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>10.82198281674691</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>9.887330189226597</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>17.55494325344909</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>-16.42234193103167</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>8.882759061138319</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:12">
+      <c r="A56" s="2">
         <v>41547</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>7.951913585277826</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.17043947916421</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>3.438723060670858</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>7.146709419758738</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>3.58826756186459</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>13.38642209772815</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>21.92117686056558</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>13.43996616874573</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>13.51718720206592</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>-14.71559300447639</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>8.460508825015809</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:12">
+      <c r="A57" s="2">
         <v>41639</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>7.956880784733585</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>6.769704084253219</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>3.021595528776721</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>9.923984949097553</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>3.698676157058298</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>10.13260291851937</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>12.06902188728714</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>11.58953415040693</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>12.4496236566376</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>-9.356315727617936</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>8.775081988130378</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:12">
+      <c r="A58" s="2">
         <v>41729</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>7.783373663266994</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>6.214189148952575</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>5.534944313638259</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>6.774788372412904</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>2.9349977644731</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>3.168240914352917</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>7.094633890062554</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>2.225387733235768</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>10.22220999021956</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>-6.60093020807311</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>8.206565377003185</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:12">
+      <c r="A59" s="2">
         <v>41820</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>8.166670551873764</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>6.543513468218897</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>3.679963151915844</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>7.94795617565651</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>3.939981647722859</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>4.949056782803298</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>7.338448427838797</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>6.862323943346829</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>9.903201904835617</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>5.144561928389364</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>6.714783731339648</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:12">
+      <c r="A60" s="2">
         <v>41912</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>8.316720055447272</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>6.227858972991373</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>4.470638126636213</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>8.301883111964125</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>4.202259500349976</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>5.902719322394578</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>8.776951907106953</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>16.28747806277675</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>14.7389340204496</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>-3.595135262133199</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>7.505764630974003</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:12">
+      <c r="A61" s="2">
         <v>42004</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>7.97829704872762</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>5.943158378620727</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>3.643850744607406</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>5.210651287031545</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>6.157777501609996</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>5.961930920276584</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>11.23369169045279</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>17.05370356248006</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>7.782270826522176</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>1.18203815131478</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>6.43654380235808</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:12">
+      <c r="A62" s="2">
         <v>42094</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>8.493597302511752</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>3.963563572474954</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>4.70102493357799</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>9.492783600602145</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>3.865145982616149</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>3.07556554655703</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>6.935384675705326</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>2.105166169194383</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>5.863641283526495</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>-8.146767393158601</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>5.588714300835975</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:12">
+      <c r="A63" s="2">
         <v>42185</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>9.167719216500071</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>2.354544562575287</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>3.493423156717516</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>6.261681056818641</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>4.838369667138915</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>2.972300649152753</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>7.26509302812588</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>2.390960008485689</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>4.583627313117569</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>-6.793820804661303</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>3.458076795050634</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:12">
+      <c r="A64" s="2">
         <v>42277</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>9.394053325296246</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>2.844003611326615</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>3.462638793758747</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>5.266834307304564</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>4.853008571252033</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>2.056742221434104</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>8.035433612035</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>2.496479777015276</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>-0.144441776164203</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>1.057402484432401</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>3.052428560660978</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:12">
+      <c r="A65" s="2">
         <v>42369</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>9.553905111744616</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>2.112331033002973</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>3.477803162041655</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>4.213733381824191</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>4.386267096223492</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>0.7896712497225723</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>8.125453429223873</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>2.862766707880694</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>5.065095672038389</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>-8.276725431261683</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>3.13577938897928</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:12">
+      <c r="A66" s="2">
         <v>42460</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>12.77470977894019</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>-0.665936659497534</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>3.08905541440257</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>4.069184636015458</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>14.72979611567984</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-4.694322848709939</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>3.82433825306545</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>0.5467852419081252</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>7.956153851449761</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>-4.809308043004131</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>-0.1822451765389662</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:12">
+      <c r="A67" s="2">
         <v>42551</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>16.48016251292899</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>-1.486936852876308</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>4.534069023361951</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>1.354540936987931</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.336781967660674</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-5.274432310123803</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>2.884677558194774</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>-2.642248937774199</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>17.18791032075847</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>-11.62916972890442</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>-0.3847495488277904</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:12">
+      <c r="A68" s="2">
         <v>42643</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>17.85203854534866</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>-2.340828949819786</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>4.537507433380554</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>1.108569549963167</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>0.7249399112975766</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.369758812506657</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>-0.1096060209692936</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>-2.306798616621524</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>18.78536322947553</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>-23.03712395584289</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>0.02685978320028897</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:12">
+      <c r="A69" s="2">
         <v>42735</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>18.54696377812238</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>-1.727738534714717</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>4.033521709620659</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>1.380336179407481</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.319686130243293</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-9.271189377464994</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>-0.08547782345479388</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>-2.492553889935398</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>18.23617465743811</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>-17.70116118016163</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>-0.328286541587695</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:12">
+      <c r="A70" s="2">
         <v>42825</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>17.25554443466523</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>-0.9141452418787249</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>3.385805506688071</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>2.734245414978186</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>10.54639671014301</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-3.104360050287598</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>0.8613537272787581</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>1.066245551003545</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>9.777747893757434</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>-15.60095884841173</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>0.7208965124886813</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:12">
+      <c r="A71" s="2">
         <v>42916</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>16.09839757532056</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.7163212076405313</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>3.013545860983928</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-1.152740514331349</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-6.179975663094155</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-3.525521323698288</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>-1.344816048171811</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>-0.9645126223542232</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>0.05451111165114199</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>3.52789815731703</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>0.445267779566563</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:12">
+      <c r="A72" s="2">
         <v>43008</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>15.9790002978573</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1.16651281379693</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>3.064445148756245</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-4.475509850310643</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-6.253168970372077</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-4.117354877229993</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>-1.221568743199992</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>-0.8537895640000156</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>-2.018601180967996</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>23.03388701265322</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>-0.7583212320942981</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:12">
+      <c r="A73" s="2">
         <v>43100</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>15.37161259298087</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>2.111230650133485</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>4.234798705620245</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-1.458236726671649</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>16.57160433787735</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-5.917569168402472</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>-1.040000000000003</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>-0.380121200000015</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>3.328841604265668</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>11.19559194895699</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>1.454062958768679</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:12">
+      <c r="A74" s="2">
         <v>43190</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>13.3371762765842</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.89067604677425</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>3.004255238995369</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>1.581295824116962</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>14.44585893030695</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-9.401365896932713</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>0.4450087553462912</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>-0.3662056765819954</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>8.543879025041232</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>14.0245544871101</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>0.7587479651491458</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:12">
+      <c r="A75" s="2">
         <v>43281</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>11.23080676341826</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1.504701727733792</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>1.191653893012333</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>11.80930722407838</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>21.75517035937294</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-3.883980217000002</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>-0.6682987108390617</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>0.4052671840000011</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>13.5116610966684</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>-3.950311370748266</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>2.046738367037241</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:12">
+      <c r="A76" s="2">
         <v>43373</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>11.2842208224588</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1.808050727670915</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>1.907231447178794</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>12.08756734601136</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>11.9507732979634</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-2.676986127360811</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>-0.4230782408764046</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>-0.6828617424315616</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>16.75190580324468</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>-2.907399980314582</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>2.322627889328475</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:12">
+      <c r="A77" s="2">
         <v>43465</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>11.44179324237828</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>2.383960209593698</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>2.45581158356616</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>13.19607083840323</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>9.479168488326737</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-3.846414052768004</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>0.3546968264312558</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>-0.6369260877138445</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>10.48563345626272</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>-1.617243434490938</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>2.701202143165017</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:12">
+      <c r="A78" s="2">
         <v>43555</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>11.25114956972982</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>2.099184485556044</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>3.171586697693603</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>9.483816130998457</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>19.50125258502178</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>0.9333333333333506</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>0.1815998028077362</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>-0.1594423451853291</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>10.67471812290427</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>-1.457162963169697</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>2.474623153617954</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:12">
+      <c r="A79" s="2">
         <v>43646</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>11.21731589587189</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>2.116502231133532</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>1.793944290707899</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>9.008296557514333</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>8.021352466283767</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-3.843209934395495</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>0.9646340426281226</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>1.125406383066139</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>12.91448928122402</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>7.173805236312182</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>1.64351583040182</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:12">
+      <c r="A80" s="2">
         <v>43738</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>11.24375477733328</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>2.28286187530647</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>2.281239865995288</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>9.87655461907169</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>18.24321229043286</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-2.312431587248673</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>1.190308912189137</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>0.8623652142563195</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>6.825013374600582</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>6.49179719072954</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>1.847035012700891</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:12">
+      <c r="A81" s="2">
         <v>43830</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>11.98156928640263</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>2.553837477818995</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>2.313975489747291</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>8.499896876605128</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-0.8004689804953469</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-3.445104674052913</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>0.8371057204320319</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>-0.5630852497640241</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>9.157033963455588</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>6.361696693385543</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>2.264620172483284</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:12">
+      <c r="A82" s="2">
         <v>43921</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>12.25732480448665</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1.869580971853236</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>2.202314170748497</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>7.648670168301945</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>2.820923812895156</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-4.751970773544227</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>0.6914895259153897</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>1.057082452431716</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>17.11485196705687</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>5.05776095176682</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>1.545922948004369</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:12">
+      <c r="A83" s="2">
         <v>44012</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>12.55871969035388</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>-6.104048247452266</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>1.580286716098763</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>15.09447890874568</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-49.22892359090785</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-21.99473769632753</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>-24.12345698543006</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>1.894639388052624</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>18.78806651478282</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>-6.630106254283382</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>-6.052171554081796</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:12">
+      <c r="A84" s="2">
         <v>44104</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>13.70662921174079</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>-3.620784861782848</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>1.38815499244384</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>14.55604008944266</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-42.98060181812836</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-13.40466167698472</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>-20.74123678923324</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>2.822128966241464</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>30.16973143856033</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>-13.89100942173041</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>-2.508824133668302</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:12">
+      <c r="A85" s="2">
         <v>44196</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>15.75338664785587</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.1148262054306243</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>3.421821154304557</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>14.94603598565385</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.950248507154708</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>2.80828301978016</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>-11.43234567889996</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>3.049839961728323</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>30.99575284781755</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>-19.76195035208478</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>1.685005314459084</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:12">
+      <c r="A86" s="2">
         <v>44286</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>18.17136774052661</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.5081909641388271</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>2.276954490543235</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>6.468640435206161</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-21.89297428799583</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>1.765122916186568</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>-6.20105737945177</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>4.648526696142301</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>23.47004868106274</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>-2.210508528323115</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>0.7937332312532009</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:12">
+      <c r="A87" s="2">
         <v>44377</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>17.7507572619007</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>5.011558853745474</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>1.302196425710077</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>5.554796990973944</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>76.80543547131681</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>3.847462117124449</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>0.6347236994866878</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>4.915675356880831</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>19.23551137205911</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>-12.65485984319175</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>6.742998225032566</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:12">
+      <c r="A88" s="2">
         <v>44469</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>16.62986719311127</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>4.031379421474362</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>1.219477494298286</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>9.661818915324185</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>20.60591487005586</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>2.320019287394804</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>1.370575796852398</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>4.990903449182148</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>15.68335456181584</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>-10.73249354825563</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>5.443243858529179</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:12">
+      <c r="A89" s="2">
         <v>44561</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>15.62548885057532</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>3.984187311539177</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>3.580017097010756</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>5.02657487876581</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>29.72451608555792</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>1.471456158605745</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>1.423537147563969</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>5.136758037558149</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>15.83100118500946</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>-8.056262466828887</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>4.734719629598296</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:12">
+      <c r="A90" s="2">
         <v>44651</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="2">
         <v>44742</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="2">
         <v>44834</v>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="2">
         <v>44926</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>